--- a/IO_M2.1_new/Analysis_Investment/Inv_Tables_12-1-15.xlsx
+++ b/IO_M2.1_new/Analysis_Investment/Inv_Tables_12-1-15.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\Model_Main\IO_M2.1_new\Analysis_Investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M2.1_new\Analysis_Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" tabRatio="715"/>
   </bookViews>
   <sheets>
     <sheet name="risks_tab New" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Table_Policy_results" sheetId="11" r:id="rId9"/>
     <sheet name="Table_TradeOff_results" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -2670,6 +2670,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2705,6 +2722,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2859,11 +2893,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12298,7 +12332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -32646,7 +32680,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:L8"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33896,7 +33930,7 @@
   <dimension ref="B3:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
